--- a/Raport/tabelcoicopleuhinnad.xlsx
+++ b/Raport/tabelcoicopleuhinnad.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avork\Documents\demandsystemEE\Raport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF01B4-B83E-48E8-B13B-1FD321B8C882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F67B37-1E2C-4360-8976-940B44D02DF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24675" windowHeight="11895" xr2:uid="{B3CF5CF4-4A18-426D-8607-2ACA7CC7028C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="11900" activeTab="1" xr2:uid="{B3CF5CF4-4A18-426D-8607-2ACA7CC7028C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="english" sheetId="1" r:id="rId1"/>
+    <sheet name="estonian" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>LEU 1996-2007</t>
   </si>
@@ -136,19 +137,157 @@
   </si>
   <si>
     <t>CP12 - Miscellaneous goods and services</t>
+  </si>
+  <si>
+    <t>Hinnaindeks</t>
+  </si>
+  <si>
+    <t>Kokku</t>
+  </si>
+  <si>
+    <t>Toit ja mittealkohoolsed joogid</t>
+  </si>
+  <si>
+    <t>Alkohoolsed joogid ja tubakatooted</t>
+  </si>
+  <si>
+    <t>Riietus ja jalatsid</t>
+  </si>
+  <si>
+    <t>Eluase</t>
+  </si>
+  <si>
+    <t>Majapidamine</t>
+  </si>
+  <si>
+    <t>Tervishoid</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Vaba aeg</t>
+  </si>
+  <si>
+    <t>Haridus ja lasteasutused</t>
+  </si>
+  <si>
+    <t>Söömine väljaspool kodu, majutus</t>
+  </si>
+  <si>
+    <t>Mitmesugused kaubad ja teenused</t>
+  </si>
+  <si>
+    <t>Kulutused kokku</t>
+  </si>
+  <si>
+    <t>Tarbimiskulud</t>
+  </si>
+  <si>
+    <t>Toit ja alkoholita joogid</t>
+  </si>
+  <si>
+    <t>Alkoholjoogid ja tubakas</t>
+  </si>
+  <si>
+    <t>Rõivad ja jalatsid</t>
+  </si>
+  <si>
+    <t>Majapidamiskulud</t>
+  </si>
+  <si>
+    <t>Haridus</t>
+  </si>
+  <si>
+    <t>Restoranid ja hotellid</t>
+  </si>
+  <si>
+    <t>Muud kulutused</t>
+  </si>
+  <si>
+    <t>CP00</t>
+  </si>
+  <si>
+    <t>CP01</t>
+  </si>
+  <si>
+    <t>CP02</t>
+  </si>
+  <si>
+    <t>CP03</t>
+  </si>
+  <si>
+    <t>CP04</t>
+  </si>
+  <si>
+    <t>CP05</t>
+  </si>
+  <si>
+    <t>CP06</t>
+  </si>
+  <si>
+    <t>CP07</t>
+  </si>
+  <si>
+    <t>CP08</t>
+  </si>
+  <si>
+    <t>CP09</t>
+  </si>
+  <si>
+    <t>CP10</t>
+  </si>
+  <si>
+    <t>CP11</t>
+  </si>
+  <si>
+    <t>CP12</t>
+  </si>
+  <si>
+    <t>Toit ja alkoholivabad joogid</t>
+  </si>
+  <si>
+    <t>Alkohoolsed joogid</t>
+  </si>
+  <si>
+    <t>Tubakatooted</t>
+  </si>
+  <si>
+    <t>Rõivad ja jalanõud</t>
+  </si>
+  <si>
+    <t>Sideteenused</t>
+  </si>
+  <si>
+    <t>Hotellid, kohvikud, restoranid</t>
+  </si>
+  <si>
+    <t>Mitterahaline tarbimine</t>
+  </si>
+  <si>
+    <t>Lühend</t>
+  </si>
+  <si>
+    <t>Nimetus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,14 +307,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -489,18 +631,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F82DE84-E4BA-47FF-8F2F-5EB75ADCF75A}">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -519,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -530,7 +672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -541,7 +683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -552,12 +694,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -568,7 +710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -579,7 +721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -590,7 +732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -601,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -612,7 +754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -623,7 +765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -634,7 +776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -645,7 +787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -656,7 +798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -667,12 +809,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -683,4 +825,370 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9C725F-DF8E-4DFB-9DD2-68C3FA681DD3}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(D3," ", E3)</f>
+        <v>CP00 Kokku</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE("coicop == ", """", D3, """", " ~ ", """", B3,"""")</f>
+        <v>coicop == "CP00" ~ "Tarbimiskulud"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(D4," ", E4)</f>
+        <v>CP01 Toit ja mittealkohoolsed joogid</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F16" si="0">CONCATENATE("coicop == ", """", D4, """", " ~ ", """", B4,"""")</f>
+        <v>coicop == "CP01" ~ "Toit ja alkoholita joogid"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(D5," ", E5)</f>
+        <v>CP02 Alkohoolsed joogid ja tubakatooted</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP02" ~ "Alkoholjoogid ja tubakas"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(D6," ", E6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "" ~ ""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(D7," ", E7)</f>
+        <v>CP03 Riietus ja jalatsid</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP03" ~ "Rõivad ja jalatsid"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(D8," ", E8)</f>
+        <v>CP04 Eluase</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP04" ~ "Eluase"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(D9," ", E9)</f>
+        <v>CP05 Majapidamine</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP05" ~ "Majapidamiskulud"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(D10," ", E10)</f>
+        <v>CP06 Tervishoid</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP06" ~ "Tervishoid"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(D11," ", E11)</f>
+        <v>CP07 Transport</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP07" ~ "Transport"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(D12," ", E12)</f>
+        <v>CP08 Side</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP08" ~ "Side"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(D13," ", E13)</f>
+        <v>CP09 Vaba aeg</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP09" ~ "Vaba aeg"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(D14," ", E14)</f>
+        <v>CP10 Haridus ja lasteasutused</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP10" ~ "Haridus"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(D15," ", E15)</f>
+        <v>CP11 Söömine väljaspool kodu, majutus</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP11" ~ "Restoranid ja hotellid"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(D16," ", E16)</f>
+        <v>CP12 Mitmesugused kaubad ja teenused</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>coicop == "CP12" ~ "Mitmesugused kaubad ja teenused"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>